--- a/User_Prediction_Samples.xlsx
+++ b/User_Prediction_Samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melih/Documents/Masters/KTH_DASE-ICT Innovation_Data Science/Data Mining/Project/test_graph/KTH-ID2211-Data-Mining-master/__DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F7562F-6376-6F4B-A85B-FED35CBC3CC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052D8F49-2A73-6F49-B47E-3D0D40D09D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{2B7A797C-A8DF-4340-A160-385A5FE6794A}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{2B7A797C-A8DF-4340-A160-385A5FE6794A}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="5" r:id="rId1"/>
@@ -1028,14 +1028,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>16164</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>79664</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3721100</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1058,7 +1058,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6908800" y="3140364"/>
+          <a:off x="6908800" y="3000664"/>
           <a:ext cx="4965700" cy="4632036"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1068,6 +1068,112 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4152900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4417107" cy="1641219"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86958D17-1485-4143-8651-FBEC5E25573E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12306300" y="3213100"/>
+          <a:ext cx="4417107" cy="1641219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" u="sng"/>
+            <a:t>Features to be added:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>* Let's show the performance values for the MODEL, as well</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> Also, we don't do the convergence check, we can add it, too</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>* We can add time-range, it's not a big deal (for the first and last records).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>--- the notation we used is a bit different than in the lectures</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>Lecture: P, M</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>Ours: r, P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4079,7 +4185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D0EF1B-7131-DA45-8B50-55FAA898E955}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5749,7 +5855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDECD25-981F-4C4E-9FBC-4251C29E0197}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>

--- a/User_Prediction_Samples.xlsx
+++ b/User_Prediction_Samples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melih/Documents/Masters/KTH_DASE-ICT Innovation_Data Science/Data Mining/Project/test_graph/KTH-ID2211-Data-Mining-master/__DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052D8F49-2A73-6F49-B47E-3D0D40D09D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A09437-5F48-8C40-885F-92EFB05C3492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{2B7A797C-A8DF-4340-A160-385A5FE6794A}"/>
   </bookViews>
@@ -1026,16 +1026,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4940300</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>79664</xdr:rowOff>
+      <xdr:rowOff>143164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3721100</xdr:colOff>
+      <xdr:colOff>2794000</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1058,7 +1058,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6908800" y="3000664"/>
+          <a:off x="5981700" y="3064164"/>
           <a:ext cx="4965700" cy="4632036"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1071,11 +1071,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4152900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>3136900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4417107" cy="1641219"/>
+    <xdr:ext cx="4417107" cy="1813317"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="TextBox 2">
@@ -1089,8 +1089,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12306300" y="3213100"/>
-          <a:ext cx="4417107" cy="1641219"/>
+          <a:off x="11290300" y="3073400"/>
+          <a:ext cx="4417107" cy="1813317"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1143,6 +1143,12 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>(apparently, bipartite graphs don't converge..)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
             <a:t>* We can add time-range, it's not a big deal (for the first and last records).</a:t>
           </a:r>
         </a:p>
@@ -1174,6 +1180,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3124200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>65506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DA31CA-7060-3D41-8C7F-77B1CD83EE96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11277600" y="5018506"/>
+          <a:ext cx="6070600" cy="2715794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4185,7 +4235,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D0EF1B-7131-DA45-8B50-55FAA898E955}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
